--- a/temp_upload.xlsx
+++ b/temp_upload.xlsx
@@ -5,9 +5,10 @@
   <sheets>
     <sheet state="visible" name="Project status" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="UPS serial Numbers" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="school with issues" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Schools to be revisted" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Old UPS to be picked up" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Schools Contacts" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="school with issues" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Schools to be revisted" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Old UPS to be picked up" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Project status'!$C$1:$C$1000</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="436">
   <si>
     <t>Sites</t>
   </si>
@@ -149,6 +150,9 @@
     <t>Carleton Heights PS</t>
   </si>
   <si>
+    <t>Delivered</t>
+  </si>
+  <si>
     <t>Carson Grove PS</t>
   </si>
   <si>
@@ -633,6 +637,12 @@
     <t>School Started</t>
   </si>
   <si>
+    <t>Total UPS pending to be deployed</t>
+  </si>
+  <si>
+    <t>Sites Delivered</t>
+  </si>
+  <si>
     <t>Site Code</t>
   </si>
   <si>
@@ -678,7 +688,7 @@
     <t>DC-2</t>
   </si>
   <si>
-    <t>SAS2351154936</t>
+    <t>AS2351154936</t>
   </si>
   <si>
     <t>10.137.17.30</t>
@@ -919,6 +929,180 @@
   </si>
   <si>
     <t>10.74.17.30</t>
+  </si>
+  <si>
+    <t>AS2351264351</t>
+  </si>
+  <si>
+    <t>10.74.17.40</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>VP-1</t>
+  </si>
+  <si>
+    <t>VP-2</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Chief custodian</t>
+  </si>
+  <si>
+    <t>Sue Christie</t>
+  </si>
+  <si>
+    <t>Nicole Kingsbury</t>
+  </si>
+  <si>
+    <t>Glen Balson</t>
+  </si>
+  <si>
+    <t>Lakesha Young</t>
+  </si>
+  <si>
+    <t>Pascale Evans</t>
+  </si>
+  <si>
+    <t>Tiffany Jones</t>
+  </si>
+  <si>
+    <t>Ruggiero D'Amato</t>
+  </si>
+  <si>
+    <t>Robert Levesque</t>
+  </si>
+  <si>
+    <t>Trent Clark</t>
+  </si>
+  <si>
+    <t>Lisa Burton</t>
+  </si>
+  <si>
+    <t>Rebecca Ryan</t>
+  </si>
+  <si>
+    <t>Katherine Partington</t>
+  </si>
+  <si>
+    <t>Stephen Mondey</t>
+  </si>
+  <si>
+    <t>Robert Richardson</t>
+  </si>
+  <si>
+    <t>Rachael Bennett</t>
+  </si>
+  <si>
+    <t>Patricia Messervey</t>
+  </si>
+  <si>
+    <t>HMBY</t>
+  </si>
+  <si>
+    <t>Chris Toivonen</t>
+  </si>
+  <si>
+    <t>Allison Hunter Slack</t>
+  </si>
+  <si>
+    <t>Jane Foster</t>
+  </si>
+  <si>
+    <t>Justin Disipio</t>
+  </si>
+  <si>
+    <t>Kati Mackie</t>
+  </si>
+  <si>
+    <t>Jenna Anderson</t>
+  </si>
+  <si>
+    <t>Rose Sharpe</t>
+  </si>
+  <si>
+    <t>Jesse Larabie</t>
+  </si>
+  <si>
+    <t>Alisa Viner</t>
+  </si>
+  <si>
+    <t>Christol Barrett</t>
+  </si>
+  <si>
+    <t>Liane Armstrong</t>
+  </si>
+  <si>
+    <t>Daniel Weber</t>
+  </si>
+  <si>
+    <t>Kimberly Simpson</t>
+  </si>
+  <si>
+    <t>Kristine Storah</t>
+  </si>
+  <si>
+    <t>Karen Hall Dafoe</t>
+  </si>
+  <si>
+    <t>Josh Gordon</t>
+  </si>
+  <si>
+    <t>Richie Dosanjh</t>
+  </si>
+  <si>
+    <t>Lisa Potter</t>
+  </si>
+  <si>
+    <t>Carrie Foley</t>
+  </si>
+  <si>
+    <t>Andrew Cornforth</t>
+  </si>
+  <si>
+    <t>MAND</t>
+  </si>
+  <si>
+    <t>Lisa Langill</t>
+  </si>
+  <si>
+    <t>Ainsley Hughes</t>
+  </si>
+  <si>
+    <t>Shelley Valadares</t>
+  </si>
+  <si>
+    <t>Alex Dean</t>
+  </si>
+  <si>
+    <t>Naya Markanastasakis</t>
+  </si>
+  <si>
+    <t>Nivin Radwan</t>
+  </si>
+  <si>
+    <t>Angelita Stolarik</t>
+  </si>
+  <si>
+    <t>Gemma Gloriani</t>
+  </si>
+  <si>
+    <t>Dori-Anne Marcelin</t>
+  </si>
+  <si>
+    <t>Christine Reynolds</t>
+  </si>
+  <si>
+    <t>Igor Tesanovic</t>
+  </si>
+  <si>
+    <t>Brenda Tanner</t>
+  </si>
+  <si>
+    <t>Todd Lafleur</t>
   </si>
   <si>
     <t xml:space="preserve">School </t>
@@ -1156,7 +1340,7 @@
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1218,6 +1402,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Libre Franklin&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Libre Franklin&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
@@ -1320,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1437,12 +1636,6 @@
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1463,6 +1656,12 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1488,11 +1687,11 @@
     <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1524,6 +1723,12 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,6 +1742,19 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1580,7 +1798,7 @@
     <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1623,6 +1841,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1835,7 +2057,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.38"/>
     <col customWidth="1" min="2" max="2" width="8.63"/>
-    <col customWidth="1" min="3" max="3" width="15.25"/>
+    <col customWidth="1" min="3" max="3" width="15.5"/>
     <col customWidth="1" min="4" max="4" width="6.88"/>
     <col customWidth="1" min="5" max="5" width="6.75"/>
     <col customWidth="1" min="6" max="6" width="4.5"/>
@@ -1845,9 +2067,9 @@
     <col customWidth="1" min="10" max="10" width="6.0"/>
     <col customWidth="1" min="11" max="11" width="7.25"/>
     <col customWidth="1" min="12" max="12" width="8.25"/>
-    <col customWidth="1" min="13" max="13" width="14.0"/>
-    <col customWidth="1" min="14" max="14" width="13.25"/>
-    <col customWidth="1" min="15" max="15" width="25.63"/>
+    <col customWidth="1" min="13" max="13" width="11.25"/>
+    <col customWidth="1" min="14" max="14" width="12.13"/>
+    <col customWidth="1" min="15" max="15" width="14.63"/>
     <col customWidth="1" min="18" max="18" width="66.0"/>
   </cols>
   <sheetData>
@@ -2639,7 +2861,7 @@
         <v>11.0</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D19" s="33">
         <v>2.0</v>
@@ -2661,13 +2883,17 @@
         <v>30</v>
       </c>
       <c r="O19" s="34"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
+      <c r="P19" s="35">
+        <v>45720.0</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>45726.0</v>
+      </c>
       <c r="R19" s="18"/>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="13">
         <v>12.0</v>
@@ -2711,7 +2937,7 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="13">
         <v>2.0</v>
@@ -2730,7 +2956,7 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
@@ -2753,7 +2979,7 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="13">
         <v>7.0</v>
@@ -2797,7 +3023,7 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="13">
         <v>3.0</v>
@@ -2841,7 +3067,7 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="13">
         <v>10.0</v>
@@ -2882,34 +3108,34 @@
       <c r="AB24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="C25" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
       <c r="R25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="13">
         <v>7.0</v>
@@ -2953,7 +3179,7 @@
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="13">
         <v>6.0</v>
@@ -2982,7 +3208,7 @@
         <v>44971.0</v>
       </c>
       <c r="R27" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
@@ -2997,7 +3223,7 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="13">
         <v>10.0</v>
@@ -3037,7 +3263,7 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="13">
         <v>11.0</v>
@@ -3077,7 +3303,7 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="13">
         <v>10.0</v>
@@ -3117,7 +3343,7 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="13">
         <v>8.0</v>
@@ -3157,7 +3383,7 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="13">
         <v>4.0</v>
@@ -3189,7 +3415,7 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="13">
         <v>4.0</v>
@@ -3233,7 +3459,7 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="13">
         <v>10.0</v>
@@ -3273,7 +3499,7 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="21">
         <v>11.0</v>
@@ -3300,7 +3526,7 @@
         <v>45133.0</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
@@ -3315,7 +3541,7 @@
     </row>
     <row r="36">
       <c r="A36" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="31">
         <v>8.0</v>
@@ -3343,10 +3569,12 @@
         <v>30</v>
       </c>
       <c r="O36" s="34"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="49"/>
+      <c r="P36" s="35">
+        <v>45721.0</v>
+      </c>
+      <c r="Q36" s="47"/>
       <c r="R36" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S36" s="28"/>
       <c r="T36" s="28"/>
@@ -3361,7 +3589,7 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="13">
         <v>10.0</v>
@@ -3405,7 +3633,7 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
@@ -3443,7 +3671,7 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="13">
         <v>10.0</v>
@@ -3483,7 +3711,7 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="13">
         <v>8.0</v>
@@ -3525,7 +3753,7 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B41" s="13">
         <v>7.0</v>
@@ -3567,7 +3795,7 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" s="13">
         <v>6.0</v>
@@ -3610,8 +3838,8 @@
       <c r="AB42" s="19"/>
     </row>
     <row r="43">
-      <c r="A43" s="50" t="s">
-        <v>72</v>
+      <c r="A43" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="B43" s="13">
         <v>11.0</v>
@@ -3653,7 +3881,7 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" s="13">
         <v>9.0</v>
@@ -3695,7 +3923,7 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="13">
         <v>10.0</v>
@@ -3737,7 +3965,7 @@
     </row>
     <row r="46">
       <c r="A46" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="31">
         <v>12.0</v>
@@ -3763,13 +3991,13 @@
         <v>30</v>
       </c>
       <c r="O46" s="34"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="43"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50"/>
       <c r="R46" s="11"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="13">
         <v>11.0</v>
@@ -3809,7 +4037,7 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" s="13">
         <v>10.0</v>
@@ -3849,7 +4077,7 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="13">
         <v>2.0</v>
@@ -3891,7 +4119,7 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="21">
         <v>12.0</v>
@@ -3918,7 +4146,7 @@
         <v>45111.0</v>
       </c>
       <c r="R50" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S50" s="28"/>
       <c r="T50" s="28"/>
@@ -3933,7 +4161,7 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" s="13">
         <v>1.0</v>
@@ -3975,7 +4203,7 @@
     </row>
     <row r="52">
       <c r="A52" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="31">
         <v>7.0</v>
@@ -4001,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="O52" s="34"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="43"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="50"/>
       <c r="R52" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S52" s="28"/>
       <c r="T52" s="28"/>
@@ -4019,7 +4247,7 @@
     </row>
     <row r="53">
       <c r="A53" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="31">
         <v>3.0</v>
@@ -4051,13 +4279,13 @@
         <v>30</v>
       </c>
       <c r="O53" s="34"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="43"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="50"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="21">
         <v>6.0</v>
@@ -4086,7 +4314,7 @@
         <v>45152.0</v>
       </c>
       <c r="R54" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S54" s="28"/>
       <c r="T54" s="28"/>
@@ -4101,7 +4329,7 @@
     </row>
     <row r="55">
       <c r="A55" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="31">
         <v>12.0</v>
@@ -4129,13 +4357,15 @@
         <v>30</v>
       </c>
       <c r="O55" s="34"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="43"/>
+      <c r="P55" s="35">
+        <v>45721.0</v>
+      </c>
+      <c r="Q55" s="50"/>
       <c r="R55" s="11"/>
     </row>
     <row r="56">
       <c r="A56" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" s="21">
         <v>12.0</v>
@@ -4162,7 +4392,7 @@
         <v>45118.0</v>
       </c>
       <c r="R56" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S56" s="28"/>
       <c r="T56" s="28"/>
@@ -4177,7 +4407,7 @@
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="13">
         <v>8.0</v>
@@ -4217,13 +4447,13 @@
     </row>
     <row r="58">
       <c r="A58" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="31">
         <v>10.0</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D58" s="33">
         <v>2.0</v>
@@ -4243,13 +4473,17 @@
         <v>30</v>
       </c>
       <c r="O58" s="34"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="43"/>
+      <c r="P58" s="35">
+        <v>45720.0</v>
+      </c>
+      <c r="Q58" s="35">
+        <v>45729.0</v>
+      </c>
       <c r="R58" s="11"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="13">
         <v>9.0</v>
@@ -4291,7 +4525,7 @@
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="13">
         <v>1.0</v>
@@ -4337,7 +4571,7 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="21">
         <v>2.0</v>
@@ -4368,7 +4602,7 @@
       <c r="P61" s="51"/>
       <c r="Q61" s="51"/>
       <c r="R61" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
@@ -4383,7 +4617,7 @@
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="13">
         <v>3.0</v>
@@ -4423,7 +4657,7 @@
     </row>
     <row r="63">
       <c r="A63" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="52">
         <v>2.0</v>
@@ -4451,13 +4685,13 @@
         <v>30</v>
       </c>
       <c r="O63" s="54"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
       <c r="R63" s="11"/>
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="21">
         <v>2.0</v>
@@ -4490,7 +4724,7 @@
         <v>45061.0</v>
       </c>
       <c r="R64" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S64" s="28"/>
       <c r="T64" s="28"/>
@@ -4505,7 +4739,7 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" s="13">
         <v>2.0</v>
@@ -4545,7 +4779,7 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B66" s="13">
         <v>3.0</v>
@@ -4589,7 +4823,7 @@
     </row>
     <row r="67" ht="28.5" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="13">
         <v>9.0</v>
@@ -4631,7 +4865,7 @@
     </row>
     <row r="68" ht="24.0" customHeight="1">
       <c r="A68" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="13">
         <v>4.0</v>
@@ -4675,7 +4909,7 @@
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="13">
         <v>12.0</v>
@@ -4719,7 +4953,7 @@
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
@@ -4759,7 +4993,7 @@
     </row>
     <row r="71">
       <c r="A71" s="58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B71" s="31">
         <v>6.0</v>
@@ -4782,46 +5016,50 @@
       <c r="L71" s="33">
         <v>1.0</v>
       </c>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
+      <c r="M71" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="O71" s="34"/>
-      <c r="P71" s="42"/>
-      <c r="Q71" s="43"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="50"/>
       <c r="R71" s="11"/>
     </row>
     <row r="72">
-      <c r="A72" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="52">
+      <c r="A72" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="31">
         <v>3.0</v>
       </c>
-      <c r="C72" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="25">
+      <c r="C72" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="33">
         <v>1.0</v>
       </c>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="25">
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="33">
         <v>1.0</v>
       </c>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
       <c r="R72" s="11"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="13">
         <v>1.0</v>
@@ -4861,7 +5099,7 @@
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B74" s="13">
         <v>8.0</v>
@@ -4889,7 +5127,7 @@
       <c r="Q74" s="17">
         <v>45106.0</v>
       </c>
-      <c r="R74" s="60"/>
+      <c r="R74" s="59"/>
       <c r="S74" s="19"/>
       <c r="T74" s="19"/>
       <c r="U74" s="19"/>
@@ -4903,7 +5141,7 @@
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" s="13">
         <v>3.0</v>
@@ -4947,7 +5185,7 @@
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="13">
         <v>5.0</v>
@@ -4979,7 +5217,7 @@
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B77" s="13">
         <v>7.0</v>
@@ -5022,14 +5260,14 @@
       <c r="AB77" s="19"/>
     </row>
     <row r="78">
-      <c r="A78" s="59" t="s">
-        <v>113</v>
+      <c r="A78" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="B78" s="52">
         <v>9.0</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D78" s="25">
         <v>2.0</v>
@@ -5045,13 +5283,13 @@
       <c r="M78" s="54"/>
       <c r="N78" s="54"/>
       <c r="O78" s="54"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
       <c r="R78" s="11"/>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" s="13">
         <v>1.0</v>
@@ -5091,7 +5329,7 @@
     </row>
     <row r="80">
       <c r="A80" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="21">
         <v>8.0</v>
@@ -5118,7 +5356,7 @@
         <v>45113.0</v>
       </c>
       <c r="R80" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S80" s="28"/>
       <c r="T80" s="28"/>
@@ -5133,7 +5371,7 @@
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B81" s="13">
         <v>7.0</v>
@@ -5175,13 +5413,13 @@
     </row>
     <row r="82">
       <c r="A82" s="58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="31">
         <v>5.0</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D82" s="33">
         <v>2.0</v>
@@ -5208,12 +5446,14 @@
       <c r="P82" s="35">
         <v>45720.0</v>
       </c>
-      <c r="Q82" s="43"/>
+      <c r="Q82" s="35">
+        <v>45728.0</v>
+      </c>
       <c r="R82" s="11"/>
     </row>
     <row r="83">
       <c r="A83" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="21">
         <v>6.0</v>
@@ -5246,7 +5486,7 @@
         <v>45056.0</v>
       </c>
       <c r="R83" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S83" s="28"/>
       <c r="T83" s="28"/>
@@ -5261,7 +5501,7 @@
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13">
         <v>6.0</v>
@@ -5291,7 +5531,7 @@
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B85" s="13">
         <v>6.0</v>
@@ -5332,14 +5572,14 @@
       <c r="AB85" s="19"/>
     </row>
     <row r="86">
-      <c r="A86" s="59" t="s">
-        <v>123</v>
+      <c r="A86" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="B86" s="52">
         <v>4.0</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86" s="25">
         <v>1.0</v>
@@ -5355,13 +5595,13 @@
       <c r="M86" s="54"/>
       <c r="N86" s="54"/>
       <c r="O86" s="54"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
       <c r="R86" s="11"/>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" s="13">
         <v>1.0</v>
@@ -5393,7 +5633,7 @@
     </row>
     <row r="88">
       <c r="A88" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="22" t="s">
@@ -5422,7 +5662,7 @@
         <v>45124.0</v>
       </c>
       <c r="R88" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S88" s="28"/>
       <c r="T88" s="28"/>
@@ -5437,7 +5677,7 @@
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B89" s="13">
         <v>6.0</v>
@@ -5464,12 +5704,12 @@
         <v>45155.0</v>
       </c>
       <c r="R89" s="61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" s="13">
         <v>11.0</v>
@@ -5511,7 +5751,7 @@
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" s="13">
         <v>9.0</v>
@@ -5551,7 +5791,7 @@
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" s="13">
         <v>12.0</v>
@@ -5592,14 +5832,14 @@
       <c r="AB92" s="19"/>
     </row>
     <row r="93">
-      <c r="A93" s="59" t="s">
-        <v>132</v>
+      <c r="A93" s="60" t="s">
+        <v>133</v>
       </c>
       <c r="B93" s="52">
         <v>11.0</v>
       </c>
       <c r="C93" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D93" s="25">
         <v>2.0</v>
@@ -5615,13 +5855,13 @@
       <c r="M93" s="54"/>
       <c r="N93" s="54"/>
       <c r="O93" s="54"/>
-      <c r="P93" s="43"/>
-      <c r="Q93" s="43"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
       <c r="R93" s="11"/>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="13">
         <v>2.0</v>
@@ -5664,14 +5904,14 @@
       <c r="AB94" s="19"/>
     </row>
     <row r="95">
-      <c r="A95" s="59" t="s">
-        <v>134</v>
+      <c r="A95" s="60" t="s">
+        <v>135</v>
       </c>
       <c r="B95" s="52">
         <v>6.0</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D95" s="25">
         <v>2.0</v>
@@ -5691,19 +5931,19 @@
       <c r="M95" s="54"/>
       <c r="N95" s="54"/>
       <c r="O95" s="54"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
       <c r="R95" s="11"/>
     </row>
     <row r="96">
-      <c r="A96" s="59" t="s">
-        <v>135</v>
+      <c r="A96" s="60" t="s">
+        <v>136</v>
       </c>
       <c r="B96" s="52">
         <v>2.0</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D96" s="25">
         <v>2.0</v>
@@ -5721,19 +5961,19 @@
       <c r="M96" s="54"/>
       <c r="N96" s="54"/>
       <c r="O96" s="54"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
+      <c r="P96" s="50"/>
+      <c r="Q96" s="50"/>
       <c r="R96" s="11"/>
     </row>
     <row r="97">
-      <c r="A97" s="59" t="s">
-        <v>136</v>
+      <c r="A97" s="60" t="s">
+        <v>137</v>
       </c>
       <c r="B97" s="52">
         <v>11.0</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D97" s="25">
         <v>2.0</v>
@@ -5753,19 +5993,19 @@
       <c r="M97" s="54"/>
       <c r="N97" s="54"/>
       <c r="O97" s="54"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
+      <c r="P97" s="50"/>
+      <c r="Q97" s="50"/>
       <c r="R97" s="11"/>
     </row>
     <row r="98">
-      <c r="A98" s="59" t="s">
-        <v>137</v>
+      <c r="A98" s="60" t="s">
+        <v>138</v>
       </c>
       <c r="B98" s="52">
         <v>4.0</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D98" s="25">
         <v>2.0</v>
@@ -5783,19 +6023,19 @@
       <c r="M98" s="54"/>
       <c r="N98" s="54"/>
       <c r="O98" s="54"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
+      <c r="P98" s="50"/>
+      <c r="Q98" s="50"/>
       <c r="R98" s="11"/>
     </row>
     <row r="99">
-      <c r="A99" s="59" t="s">
-        <v>138</v>
+      <c r="A99" s="60" t="s">
+        <v>139</v>
       </c>
       <c r="B99" s="52">
         <v>3.0</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D99" s="25">
         <v>2.0</v>
@@ -5811,19 +6051,19 @@
       <c r="M99" s="54"/>
       <c r="N99" s="54"/>
       <c r="O99" s="54"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
+      <c r="P99" s="50"/>
+      <c r="Q99" s="50"/>
       <c r="R99" s="11"/>
     </row>
     <row r="100">
-      <c r="A100" s="59" t="s">
-        <v>139</v>
+      <c r="A100" s="60" t="s">
+        <v>140</v>
       </c>
       <c r="B100" s="52">
         <v>2.0</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D100" s="25">
         <v>2.0</v>
@@ -5841,13 +6081,13 @@
       <c r="M100" s="54"/>
       <c r="N100" s="54"/>
       <c r="O100" s="54"/>
-      <c r="P100" s="43"/>
-      <c r="Q100" s="43"/>
+      <c r="P100" s="50"/>
+      <c r="Q100" s="50"/>
       <c r="R100" s="11"/>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B101" s="13">
         <v>2.0</v>
@@ -5888,14 +6128,14 @@
       <c r="AB101" s="19"/>
     </row>
     <row r="102">
-      <c r="A102" s="59" t="s">
-        <v>141</v>
+      <c r="A102" s="60" t="s">
+        <v>142</v>
       </c>
       <c r="B102" s="52">
         <v>7.0</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D102" s="25">
         <v>3.0</v>
@@ -5915,8 +6155,8 @@
       <c r="M102" s="54"/>
       <c r="N102" s="54"/>
       <c r="O102" s="54"/>
-      <c r="P102" s="49"/>
-      <c r="Q102" s="49">
+      <c r="P102" s="47"/>
+      <c r="Q102" s="47">
         <v>45211.0</v>
       </c>
       <c r="R102" s="18"/>
@@ -5933,7 +6173,7 @@
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" s="13">
         <v>1.0</v>
@@ -5975,7 +6215,7 @@
     </row>
     <row r="104">
       <c r="A104" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B104" s="21">
         <v>1.0</v>
@@ -6008,7 +6248,7 @@
         <v>45002.0</v>
       </c>
       <c r="R104" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S104" s="28"/>
       <c r="T104" s="28"/>
@@ -6023,7 +6263,7 @@
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="13">
         <v>8.0</v>
@@ -6056,14 +6296,14 @@
       <c r="R105" s="11"/>
     </row>
     <row r="106">
-      <c r="A106" s="59" t="s">
-        <v>146</v>
+      <c r="A106" s="60" t="s">
+        <v>147</v>
       </c>
       <c r="B106" s="52">
         <v>8.0</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D106" s="25">
         <v>2.0</v>
@@ -6079,13 +6319,13 @@
       <c r="M106" s="54"/>
       <c r="N106" s="54"/>
       <c r="O106" s="54"/>
-      <c r="P106" s="43"/>
-      <c r="Q106" s="43"/>
+      <c r="P106" s="50"/>
+      <c r="Q106" s="50"/>
       <c r="R106" s="11"/>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" s="13">
         <v>8.0</v>
@@ -6124,14 +6364,14 @@
       <c r="AB107" s="19"/>
     </row>
     <row r="108">
-      <c r="A108" s="59" t="s">
-        <v>148</v>
+      <c r="A108" s="60" t="s">
+        <v>149</v>
       </c>
       <c r="B108" s="52">
         <v>7.0</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D108" s="25">
         <v>1.0</v>
@@ -6151,13 +6391,13 @@
       <c r="M108" s="54"/>
       <c r="N108" s="54"/>
       <c r="O108" s="54"/>
-      <c r="P108" s="43"/>
-      <c r="Q108" s="43"/>
+      <c r="P108" s="50"/>
+      <c r="Q108" s="50"/>
       <c r="R108" s="11"/>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B109" s="13">
         <v>6.0</v>
@@ -6199,13 +6439,13 @@
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" s="13">
         <v>9.0</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -6225,13 +6465,13 @@
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="13">
         <v>11.0</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -6251,7 +6491,7 @@
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B112" s="13">
         <v>2.0</v>
@@ -6295,7 +6535,7 @@
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113" s="13">
         <v>2.0</v>
@@ -6337,7 +6577,7 @@
     </row>
     <row r="114">
       <c r="A114" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B114" s="13">
         <v>1.0</v>
@@ -6379,7 +6619,7 @@
     </row>
     <row r="115">
       <c r="A115" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="21">
         <v>4.0</v>
@@ -6412,7 +6652,7 @@
         <v>44970.0</v>
       </c>
       <c r="R115" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S115" s="28"/>
       <c r="T115" s="28"/>
@@ -6427,7 +6667,7 @@
     </row>
     <row r="116">
       <c r="A116" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B116" s="21">
         <v>9.0</v>
@@ -6453,7 +6693,7 @@
       </c>
       <c r="P116" s="23"/>
       <c r="Q116" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R116" s="63"/>
       <c r="S116" s="28"/>
@@ -6469,7 +6709,7 @@
     </row>
     <row r="117">
       <c r="A117" s="64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="22" t="s">
@@ -6498,7 +6738,7 @@
         <v>45084.0</v>
       </c>
       <c r="R117" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S117" s="28"/>
       <c r="T117" s="28"/>
@@ -6513,11 +6753,11 @@
     </row>
     <row r="118">
       <c r="A118" s="65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" s="52"/>
       <c r="C118" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D118" s="54"/>
       <c r="E118" s="54"/>
@@ -6531,13 +6771,13 @@
       <c r="M118" s="54"/>
       <c r="N118" s="54"/>
       <c r="O118" s="54"/>
-      <c r="P118" s="43"/>
-      <c r="Q118" s="43"/>
+      <c r="P118" s="50"/>
+      <c r="Q118" s="50"/>
       <c r="R118" s="11"/>
     </row>
     <row r="119">
       <c r="A119" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B119" s="21">
         <v>2.0</v>
@@ -6568,7 +6808,7 @@
         <v>45065.0</v>
       </c>
       <c r="R119" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S119" s="28"/>
       <c r="T119" s="28"/>
@@ -6582,14 +6822,14 @@
       <c r="AB119" s="28"/>
     </row>
     <row r="120">
-      <c r="A120" s="59" t="s">
-        <v>164</v>
+      <c r="A120" s="60" t="s">
+        <v>165</v>
       </c>
       <c r="B120" s="52">
         <v>10.0</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D120" s="25">
         <v>2.0</v>
@@ -6611,13 +6851,13 @@
       <c r="M120" s="54"/>
       <c r="N120" s="54"/>
       <c r="O120" s="54"/>
-      <c r="P120" s="43"/>
-      <c r="Q120" s="43"/>
+      <c r="P120" s="50"/>
+      <c r="Q120" s="50"/>
       <c r="R120" s="11"/>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B121" s="13">
         <v>5.0</v>
@@ -6668,14 +6908,14 @@
       <c r="AB121" s="19"/>
     </row>
     <row r="122">
-      <c r="A122" s="59" t="s">
-        <v>166</v>
+      <c r="A122" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="B122" s="52">
         <v>11.0</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D122" s="25">
         <v>2.0</v>
@@ -6695,19 +6935,19 @@
       <c r="M122" s="54"/>
       <c r="N122" s="54"/>
       <c r="O122" s="54"/>
-      <c r="P122" s="43"/>
-      <c r="Q122" s="43"/>
+      <c r="P122" s="50"/>
+      <c r="Q122" s="50"/>
       <c r="R122" s="11"/>
     </row>
     <row r="123">
-      <c r="A123" s="59" t="s">
-        <v>167</v>
+      <c r="A123" s="60" t="s">
+        <v>168</v>
       </c>
       <c r="B123" s="52">
         <v>8.0</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D123" s="25">
         <v>4.0</v>
@@ -6725,13 +6965,13 @@
       <c r="M123" s="54"/>
       <c r="N123" s="54"/>
       <c r="O123" s="54"/>
-      <c r="P123" s="43"/>
-      <c r="Q123" s="43"/>
+      <c r="P123" s="50"/>
+      <c r="Q123" s="50"/>
       <c r="R123" s="11"/>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B124" s="13">
         <v>6.0</v>
@@ -6743,7 +6983,7 @@
         <v>3.0</v>
       </c>
       <c r="E124" s="66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -6774,20 +7014,20 @@
       <c r="AB124" s="19"/>
     </row>
     <row r="125">
-      <c r="A125" s="59" t="s">
-        <v>170</v>
+      <c r="A125" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="B125" s="52">
         <v>12.0</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D125" s="25">
         <v>3.0</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F125" s="54"/>
       <c r="G125" s="54"/>
@@ -6801,19 +7041,19 @@
       <c r="M125" s="54"/>
       <c r="N125" s="54"/>
       <c r="O125" s="54"/>
-      <c r="P125" s="43"/>
-      <c r="Q125" s="43"/>
+      <c r="P125" s="50"/>
+      <c r="Q125" s="50"/>
       <c r="R125" s="11"/>
     </row>
     <row r="126">
-      <c r="A126" s="59" t="s">
-        <v>172</v>
+      <c r="A126" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="B126" s="52">
         <v>2.0</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D126" s="25">
         <v>3.0</v>
@@ -6837,13 +7077,13 @@
       <c r="M126" s="54"/>
       <c r="N126" s="54"/>
       <c r="O126" s="54"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
+      <c r="P126" s="50"/>
+      <c r="Q126" s="50"/>
       <c r="R126" s="11"/>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B127" s="13">
         <v>5.0</v>
@@ -6883,7 +7123,7 @@
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B128" s="13">
         <v>1.0</v>
@@ -6912,14 +7152,14 @@
       <c r="R128" s="11"/>
     </row>
     <row r="129">
-      <c r="A129" s="59" t="s">
-        <v>175</v>
+      <c r="A129" s="60" t="s">
+        <v>176</v>
       </c>
       <c r="B129" s="52">
         <v>9.0</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D129" s="25">
         <v>2.0</v>
@@ -6941,13 +7181,13 @@
       <c r="M129" s="54"/>
       <c r="N129" s="54"/>
       <c r="O129" s="54"/>
-      <c r="P129" s="43"/>
-      <c r="Q129" s="43"/>
+      <c r="P129" s="50"/>
+      <c r="Q129" s="50"/>
       <c r="R129" s="11"/>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B130" s="13">
         <v>12.0</v>
@@ -6989,7 +7229,7 @@
     </row>
     <row r="131">
       <c r="A131" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B131" s="21">
         <v>6.0</v>
@@ -7022,7 +7262,7 @@
         <v>45047.0</v>
       </c>
       <c r="R131" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S131" s="28"/>
       <c r="T131" s="28"/>
@@ -7036,14 +7276,14 @@
       <c r="AB131" s="28"/>
     </row>
     <row r="132">
-      <c r="A132" s="59" t="s">
-        <v>179</v>
+      <c r="A132" s="60" t="s">
+        <v>180</v>
       </c>
       <c r="B132" s="52">
         <v>3.0</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D132" s="25">
         <v>3.0</v>
@@ -7071,19 +7311,19 @@
       <c r="M132" s="54"/>
       <c r="N132" s="54"/>
       <c r="O132" s="54"/>
-      <c r="P132" s="43"/>
-      <c r="Q132" s="43"/>
+      <c r="P132" s="50"/>
+      <c r="Q132" s="50"/>
       <c r="R132" s="11"/>
     </row>
     <row r="133">
-      <c r="A133" s="59" t="s">
-        <v>180</v>
+      <c r="A133" s="60" t="s">
+        <v>181</v>
       </c>
       <c r="B133" s="52">
         <v>10.0</v>
       </c>
       <c r="C133" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D133" s="25">
         <v>3.0</v>
@@ -7101,19 +7341,19 @@
       <c r="M133" s="54"/>
       <c r="N133" s="54"/>
       <c r="O133" s="54"/>
-      <c r="P133" s="43"/>
-      <c r="Q133" s="43"/>
+      <c r="P133" s="50"/>
+      <c r="Q133" s="50"/>
       <c r="R133" s="11"/>
     </row>
     <row r="134">
-      <c r="A134" s="59" t="s">
-        <v>181</v>
+      <c r="A134" s="60" t="s">
+        <v>182</v>
       </c>
       <c r="B134" s="52">
         <v>3.0</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D134" s="25">
         <v>3.0</v>
@@ -7135,19 +7375,19 @@
       <c r="M134" s="54"/>
       <c r="N134" s="54"/>
       <c r="O134" s="54"/>
-      <c r="P134" s="43"/>
-      <c r="Q134" s="43"/>
+      <c r="P134" s="50"/>
+      <c r="Q134" s="50"/>
       <c r="R134" s="11"/>
     </row>
     <row r="135">
-      <c r="A135" s="59" t="s">
-        <v>182</v>
+      <c r="A135" s="60" t="s">
+        <v>183</v>
       </c>
       <c r="B135" s="52">
         <v>3.0</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D135" s="25">
         <v>2.0</v>
@@ -7173,19 +7413,19 @@
       <c r="M135" s="54"/>
       <c r="N135" s="54"/>
       <c r="O135" s="54"/>
-      <c r="P135" s="43"/>
-      <c r="Q135" s="43"/>
+      <c r="P135" s="50"/>
+      <c r="Q135" s="50"/>
       <c r="R135" s="11"/>
     </row>
     <row r="136">
-      <c r="A136" s="59" t="s">
-        <v>183</v>
+      <c r="A136" s="60" t="s">
+        <v>184</v>
       </c>
       <c r="B136" s="52">
         <v>10.0</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D136" s="25">
         <v>3.0</v>
@@ -7203,13 +7443,13 @@
       <c r="M136" s="54"/>
       <c r="N136" s="54"/>
       <c r="O136" s="54"/>
-      <c r="P136" s="43"/>
-      <c r="Q136" s="43"/>
+      <c r="P136" s="50"/>
+      <c r="Q136" s="50"/>
       <c r="R136" s="11"/>
     </row>
     <row r="137">
       <c r="A137" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B137" s="13">
         <v>12.0</v>
@@ -7239,7 +7479,7 @@
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B138" s="13">
         <v>7.0</v>
@@ -7283,7 +7523,7 @@
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B139" s="13">
         <v>6.0</v>
@@ -7327,7 +7567,7 @@
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B140" s="13">
         <v>10.0</v>
@@ -7367,7 +7607,7 @@
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B141" s="13">
         <v>6.0</v>
@@ -7413,13 +7653,13 @@
     </row>
     <row r="142">
       <c r="A142" s="58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B142" s="31">
         <v>5.0</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D142" s="33">
         <v>2.0</v>
@@ -7444,18 +7684,20 @@
       <c r="P142" s="35">
         <v>45720.0</v>
       </c>
-      <c r="Q142" s="43"/>
+      <c r="Q142" s="35">
+        <v>45727.0</v>
+      </c>
       <c r="R142" s="11"/>
     </row>
     <row r="143">
-      <c r="A143" s="59" t="s">
-        <v>190</v>
+      <c r="A143" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="B143" s="52">
         <v>3.0</v>
       </c>
       <c r="C143" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D143" s="25">
         <v>3.0</v>
@@ -7479,13 +7721,13 @@
       <c r="M143" s="54"/>
       <c r="N143" s="54"/>
       <c r="O143" s="54"/>
-      <c r="P143" s="43"/>
-      <c r="Q143" s="43"/>
+      <c r="P143" s="50"/>
+      <c r="Q143" s="50"/>
       <c r="R143" s="11"/>
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B144" s="13">
         <v>8.0</v>
@@ -7511,12 +7753,12 @@
       <c r="M144" s="15"/>
       <c r="N144" s="15"/>
       <c r="O144" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P144" s="56"/>
       <c r="Q144" s="56"/>
       <c r="R144" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S144" s="19"/>
       <c r="T144" s="19"/>
@@ -7531,7 +7773,7 @@
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B145" s="13">
         <v>1.0</v>
@@ -7579,7 +7821,7 @@
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B146" s="13">
         <v>1.0</v>
@@ -7616,7 +7858,7 @@
         <v>44958.0</v>
       </c>
       <c r="R146" s="67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S146" s="19"/>
       <c r="T146" s="19"/>
@@ -7631,7 +7873,7 @@
     </row>
     <row r="147">
       <c r="A147" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B147" s="21">
         <v>4.0</v>
@@ -7664,7 +7906,7 @@
         <v>44970.0</v>
       </c>
       <c r="R147" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S147" s="28"/>
       <c r="T147" s="28"/>
@@ -7770,7 +8012,7 @@
       <c r="J152" s="61"/>
       <c r="K152" s="61"/>
       <c r="L152" s="61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M152" s="11"/>
       <c r="N152" s="71"/>
@@ -7795,7 +8037,7 @@
       <c r="J153" s="61"/>
       <c r="K153" s="61"/>
       <c r="L153" s="61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M153" s="11"/>
       <c r="N153" s="71"/>
@@ -7820,7 +8062,7 @@
       <c r="J154" s="61"/>
       <c r="K154" s="61"/>
       <c r="L154" s="61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M154" s="11"/>
       <c r="N154" s="71"/>
@@ -7845,7 +8087,7 @@
       <c r="J155" s="61"/>
       <c r="K155" s="61"/>
       <c r="L155" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M155" s="11"/>
       <c r="N155" s="71"/>
@@ -7871,12 +8113,12 @@
       <c r="K156" s="11"/>
       <c r="L156" s="11"/>
       <c r="M156" s="61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N156" s="11"/>
       <c r="O156" s="72">
         <f>COUNTIF(C3:C147,"Started")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
@@ -7895,9 +8137,14 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
       <c r="L157" s="11"/>
-      <c r="M157" s="11"/>
+      <c r="M157" s="73" t="s">
+        <v>205</v>
+      </c>
       <c r="N157" s="11"/>
-      <c r="O157" s="11"/>
+      <c r="O157" s="72">
+        <f>sum(L9,D9,D19,L19,D36,L36,D46,D52,D53,E53,F53,L53,D55,E55,D58,D63,L63,D71,E71,D72,L71,L72,D78,D82,E82,L82,D86,D93,D95,E95,L95,L96,L97,L98,E95,D96,D97,E97,D98,D99,D100,E100,L102,E102,D102,D106,D108,E108,F108,D120,E120,F120,D122,E122,F122,D123,D125,D126,E126,F126,G126,L126,D129,E129,F129,G129,D132,E132,F132,G132,H132,I132,L132,L135,H135,G135,G134,F134,F135,E135,E134,D134,D135,D136,E136,D142,E142,L143,G143,F143,E143,R151)</f>
+        <v>156</v>
+      </c>
       <c r="P157" s="11"/>
       <c r="Q157" s="11"/>
       <c r="R157" s="11"/>
@@ -7915,9 +8162,14 @@
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
-      <c r="M158" s="11"/>
+      <c r="M158" s="73" t="s">
+        <v>206</v>
+      </c>
       <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
+      <c r="O158" s="74">
+        <f>COUNTIF(C3:C147,"delivered")</f>
+        <v>4</v>
+      </c>
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="11"/>
@@ -24765,6 +25017,9 @@
   </sheetData>
   <autoFilter ref="$C$1:$C$1000"/>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C147">
+      <formula1>"Done,Not Started,Scheduled,Started,Delivered"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N3:N147">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
@@ -24773,9 +25028,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:M147">
       <formula1>"YES,NO"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C147">
-      <formula1>"Done,Not Started,Scheduled,Started"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -24804,713 +25056,727 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
     </row>
     <row r="2">
-      <c r="A2" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="77" t="s">
         <v>213</v>
       </c>
+      <c r="C2" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>213</v>
+      <c r="D3" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="75" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="75" t="s">
+    <row r="28">
+      <c r="A28" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="75" t="s">
+    <row r="32">
+      <c r="A32" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="75" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B25" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="E35" s="75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="B37" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="E37" s="75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" s="77"/>
     </row>
     <row r="40">
-      <c r="E40" s="77"/>
+      <c r="E40" s="79"/>
     </row>
     <row r="41">
-      <c r="E41" s="77"/>
+      <c r="E41" s="79"/>
     </row>
     <row r="42">
-      <c r="E42" s="77"/>
+      <c r="E42" s="79"/>
     </row>
     <row r="43">
-      <c r="E43" s="77"/>
+      <c r="E43" s="79"/>
     </row>
     <row r="44">
-      <c r="E44" s="77"/>
+      <c r="E44" s="79"/>
     </row>
     <row r="45">
-      <c r="E45" s="77"/>
+      <c r="E45" s="79"/>
     </row>
     <row r="46">
-      <c r="E46" s="77"/>
+      <c r="E46" s="79"/>
     </row>
     <row r="47">
-      <c r="E47" s="77"/>
+      <c r="E47" s="79"/>
     </row>
     <row r="48">
-      <c r="E48" s="77"/>
+      <c r="E48" s="79"/>
     </row>
     <row r="49">
-      <c r="E49" s="77"/>
+      <c r="E49" s="79"/>
     </row>
     <row r="50">
-      <c r="E50" s="77"/>
+      <c r="E50" s="79"/>
     </row>
     <row r="51">
-      <c r="E51" s="77"/>
+      <c r="E51" s="79"/>
     </row>
     <row r="52">
-      <c r="E52" s="77"/>
+      <c r="E52" s="79"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -25523,6 +25789,606 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.75"/>
+    <col customWidth="1" min="5" max="5" width="14.38"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="76"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="81" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="82"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="82"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="82"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="82"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="84" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="82"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="82"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="82"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="82"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="82"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="82"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink r:id="rId3" ref="F2"/>
+    <hyperlink r:id="rId4" ref="B3"/>
+    <hyperlink r:id="rId5" ref="C3"/>
+    <hyperlink r:id="rId6" ref="E3"/>
+    <hyperlink r:id="rId7" ref="F3"/>
+    <hyperlink r:id="rId8" ref="B4"/>
+    <hyperlink r:id="rId9" ref="C4"/>
+    <hyperlink r:id="rId10" ref="E4"/>
+    <hyperlink r:id="rId11" ref="B5"/>
+    <hyperlink r:id="rId12" ref="E5"/>
+    <hyperlink r:id="rId13" ref="F5"/>
+    <hyperlink r:id="rId14" ref="B6"/>
+    <hyperlink r:id="rId15" ref="E6"/>
+    <hyperlink r:id="rId16" ref="F6"/>
+    <hyperlink r:id="rId17" ref="B7"/>
+    <hyperlink r:id="rId18" ref="E7"/>
+    <hyperlink r:id="rId19" ref="F7"/>
+    <hyperlink r:id="rId20" ref="B8"/>
+    <hyperlink r:id="rId21" ref="C8"/>
+    <hyperlink r:id="rId22" ref="E8"/>
+    <hyperlink r:id="rId23" ref="F8"/>
+    <hyperlink r:id="rId24" ref="B9"/>
+    <hyperlink r:id="rId25" ref="C9"/>
+    <hyperlink r:id="rId26" ref="E9"/>
+    <hyperlink r:id="rId27" ref="F9"/>
+    <hyperlink r:id="rId28" ref="B10"/>
+    <hyperlink r:id="rId29" ref="C10"/>
+    <hyperlink r:id="rId30" ref="E10"/>
+    <hyperlink r:id="rId31" ref="F10"/>
+    <hyperlink r:id="rId32" ref="B11"/>
+    <hyperlink r:id="rId33" ref="C11"/>
+    <hyperlink r:id="rId34" ref="E11"/>
+    <hyperlink r:id="rId35" ref="F11"/>
+    <hyperlink r:id="rId36" ref="B12"/>
+    <hyperlink r:id="rId37" ref="C12"/>
+    <hyperlink r:id="rId38" ref="E12"/>
+    <hyperlink r:id="rId39" ref="F12"/>
+    <hyperlink r:id="rId40" ref="B13"/>
+    <hyperlink r:id="rId41" ref="C13"/>
+    <hyperlink r:id="rId42" ref="E13"/>
+    <hyperlink r:id="rId43" ref="F13"/>
+  </hyperlinks>
+  <drawing r:id="rId44"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -25541,73 +26407,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>302</v>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>363</v>
       </c>
       <c r="E1" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="79">
+      <c r="A2" s="86">
         <v>1.0</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
+      <c r="C2" s="88" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
     </row>
     <row r="3">
       <c r="A3" s="18">
         <f t="shared" ref="A3:A23" si="1">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="93" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="87" t="s">
-        <v>305</v>
+      <c r="D3" s="94" t="s">
+        <v>366</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -25637,17 +26503,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>79</v>
+      <c r="B4" s="95" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>304</v>
+        <v>81</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -25677,17 +26543,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>81</v>
+      <c r="B5" s="95" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>304</v>
+        <v>369</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -25717,17 +26583,17 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>88</v>
+      <c r="B6" s="95" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>304</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -25757,17 +26623,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>94</v>
+      <c r="B7" s="95" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>304</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -25797,14 +26663,14 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="82" t="s">
-        <v>305</v>
+      <c r="C8" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -25813,17 +26679,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>119</v>
+      <c r="B9" s="95" t="s">
+        <v>120</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>304</v>
+        <v>121</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -25853,14 +26719,14 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>305</v>
+      <c r="B10" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -25869,17 +26735,17 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="88" t="s">
-        <v>143</v>
+      <c r="B11" s="95" t="s">
+        <v>144</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>304</v>
+        <v>145</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -25909,17 +26775,17 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>155</v>
+      <c r="B12" s="95" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>304</v>
+        <v>157</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -25949,12 +26815,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>157</v>
+      <c r="B13" s="97" t="s">
+        <v>158</v>
       </c>
       <c r="C13" s="70"/>
-      <c r="D13" s="82" t="s">
-        <v>305</v>
+      <c r="D13" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -25963,14 +26829,14 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="82" t="s">
-        <v>305</v>
+      <c r="C14" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -25979,14 +26845,14 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>305</v>
+      <c r="C15" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -25995,17 +26861,17 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="88" t="s">
-        <v>177</v>
+      <c r="B16" s="95" t="s">
+        <v>178</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>304</v>
+        <v>179</v>
+      </c>
+      <c r="D16" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -26035,14 +26901,14 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="82" t="s">
-        <v>305</v>
+      <c r="C17" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>366</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -26051,17 +26917,17 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="99" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>304</v>
+        <v>378</v>
+      </c>
+      <c r="D18" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -26092,14 +26958,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="89" t="s">
-        <v>304</v>
+      <c r="D19" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -26130,16 +26996,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>304</v>
+        <v>382</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -26170,16 +27036,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>304</v>
+        <v>385</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>365</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22">
@@ -26189,8 +27055,8 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="82" t="s">
-        <v>304</v>
+      <c r="D22" s="89" t="s">
+        <v>365</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -26201,8 +27067,8 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="82" t="s">
-        <v>304</v>
+      <c r="D23" s="89" t="s">
+        <v>365</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -26216,7 +27082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -26234,423 +27100,423 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" s="78" t="s">
+      <c r="C2" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="85" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E3" s="61">
         <v>2.0</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="E4" s="61">
         <v>1.0</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="61" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="E5" s="61">
         <v>2.0</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="61" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="E6" s="61">
         <v>2.0</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="90" t="s">
-        <v>177</v>
+      <c r="C7" s="97" t="s">
+        <v>178</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="E7" s="61">
         <v>1.0</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8">
       <c r="C8" s="61" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E8" s="61">
         <v>1.0</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9">
-      <c r="C9" s="81" t="s">
-        <v>344</v>
+      <c r="C9" s="88" t="s">
+        <v>405</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E9" s="61">
         <v>1.0</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="61" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E10" s="61">
         <v>1.0</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11">
       <c r="C11" s="61" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E11" s="61">
         <v>1.0</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="61" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E12" s="61">
         <v>1.0</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>350</v>
+        <v>395</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>411</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>351</v>
+        <v>397</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="61" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E13" s="61">
         <v>1.0</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="61" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E14" s="61">
         <v>1.0</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="61" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="E15" s="61">
         <v>1.0</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="94" t="s">
-        <v>358</v>
+      <c r="C16" s="101" t="s">
+        <v>419</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E16" s="61">
         <v>1.0</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17">
       <c r="C17" s="61" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E17" s="61">
         <v>2.0</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G17" s="61"/>
       <c r="H17" s="61" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="61" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E18" s="61">
         <v>1.0</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19">
       <c r="C19" s="61" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E19" s="61">
         <v>1.0</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="61" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="61" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E20" s="61">
         <v>1.0</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="61" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E21" s="61">
         <v>1.0</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="61" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="61" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="E22" s="61">
         <v>1.0</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>368</v>
+        <v>429</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="61" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="E23" s="61">
         <v>2.0</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="H23" s="11"/>
     </row>
@@ -26673,7 +27539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -26692,1397 +27558,1397 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="75" t="s">
-        <v>371</v>
+      <c r="C2" s="77" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="75">
+      <c r="A3" s="77">
         <v>1.0</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" s="90" t="s">
+      <c r="C3" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="77" t="str">
+      <c r="F3" s="79" t="str">
         <f t="shared" ref="F3:F96" si="1">VLOOKUP(E3,$B$3:$B$49,1,0)</f>
         <v>A. Lorne Cassidy</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="75">
+      <c r="A4" s="77">
         <f t="shared" ref="A4:A49" si="2">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="77" t="str">
+      <c r="B4" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Adrianne Clarkson</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="75">
+      <c r="A5" s="77">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" s="90" t="s">
+      <c r="C5" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="77" t="str">
+      <c r="F5" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="75">
+      <c r="A6" s="77">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="90" t="s">
+      <c r="C6" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="77" t="str">
+      <c r="F6" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Bayview PS</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="75">
+      <c r="A7" s="77">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" s="90" t="s">
+      <c r="B7" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="77" t="str">
+      <c r="F7" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Bells Corners PS</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="75">
+      <c r="A8" s="77">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E8" s="90" t="s">
+      <c r="B8" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="77" t="str">
+      <c r="F8" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="75">
+      <c r="A9" s="77">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="90" t="s">
+      <c r="B9" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="77" t="str">
+      <c r="F9" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Blossom Park PS</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="75">
+      <c r="A10" s="77">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E10" s="90" t="s">
+      <c r="B10" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="77" t="str">
+      <c r="F10" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Briargreen PS</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="75">
+      <c r="A11" s="77">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="90" t="s">
+      <c r="B11" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="77" t="str">
+      <c r="F11" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="75">
+      <c r="A12" s="77">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E12" s="90" t="s">
+      <c r="B12" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="77" t="str">
+      <c r="F12" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Cambridge PS</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="75">
+      <c r="A13" s="77">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="77" t="str">
+      <c r="B13" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Carson Grove PS</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="75">
+      <c r="A14" s="77">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="77" t="str">
+      <c r="B14" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="75">
+      <c r="A15" s="77">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="77" t="str">
+      <c r="B15" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Castor Valley PS</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="75">
+      <c r="A16" s="77">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="77" t="str">
+      <c r="B16" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Cedarview MS</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="75">
+      <c r="A17" s="77">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="77" t="str">
+      <c r="B17" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="75">
+      <c r="A18" s="77">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="77" t="str">
+      <c r="B18" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="75">
+      <c r="A19" s="77">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="77" t="str">
+      <c r="B19" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Charles Hulse PS</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="75">
+      <c r="A20" s="77">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="77" t="str">
+      <c r="B20" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Churchill PS</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="75">
+      <c r="A21" s="77">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="77" t="str">
+      <c r="B21" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Clifford Bowey</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="75">
+      <c r="A22" s="77">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="77" t="str">
+      <c r="C22" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="75">
+      <c r="A23" s="77">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="77" t="str">
+      <c r="C23" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="75">
+      <c r="A24" s="77">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="77" t="str">
+      <c r="C24" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="79" t="str">
         <f t="shared" si="1"/>
         <v>D. Roy Kennedy PS</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="75">
+      <c r="A25" s="77">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="77" t="str">
+      <c r="B25" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="75">
+      <c r="A26" s="77">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="77" t="str">
+      <c r="B26" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Elgin St. PS</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="75">
+      <c r="A27" s="77">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="77" t="str">
+      <c r="B27" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="75">
+      <c r="A28" s="77">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="77" t="str">
+      <c r="B28" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="75">
+      <c r="A29" s="77">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="77" t="str">
+      <c r="B29" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Fallingbrook ES</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="75">
+      <c r="A30" s="77">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="77" t="str">
+      <c r="B30" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="75">
+      <c r="A31" s="77">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="77" t="str">
+      <c r="B31" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E31" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Featherston Dr. PS</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="75">
+      <c r="A32" s="77">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="77" t="str">
+      <c r="B32" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="75">
+      <c r="A33" s="77">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="77" t="str">
+      <c r="B33" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E33" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="79" t="str">
         <f t="shared" si="1"/>
         <v>First Ave. PS</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="75">
+      <c r="A34" s="77">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="77" t="str">
+      <c r="B34" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="75">
+      <c r="A35" s="77">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E35" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="77" t="str">
+      <c r="B35" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E35" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="75">
+      <c r="A36" s="77">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E36" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="77" t="str">
+      <c r="B36" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="75">
+      <c r="A37" s="77">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E37" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="77" t="str">
+      <c r="B37" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="75">
+      <c r="A38" s="77">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E38" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="77" t="str">
+      <c r="B38" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="75">
+      <c r="A39" s="77">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E39" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="77" t="str">
+      <c r="B39" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Hopewell Ave. PS</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="75">
+      <c r="A40" s="77">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="77" t="str">
+      <c r="B40" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Huntley Centennial PS</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="75">
+      <c r="A41" s="77">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E41" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="77" t="str">
+      <c r="B41" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E41" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="75">
+      <c r="A42" s="77">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B42" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E42" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="77" t="str">
+      <c r="B42" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E42" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Katimavik ES</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="75">
+      <c r="A43" s="77">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B43" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E43" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="77" t="str">
+      <c r="B43" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Knoxdale PS</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="75">
+      <c r="A44" s="77">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B44" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E44" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="77" t="str">
+      <c r="B44" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Lady Evelyn Alt.</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="75">
+      <c r="A45" s="77">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E45" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="77" t="str">
+      <c r="C45" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E45" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Lakeview PS</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="75">
+      <c r="A46" s="77">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E46" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="77" t="str">
+      <c r="C46" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="79" t="str">
         <f t="shared" si="1"/>
         <v>LePhare ES</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="75">
+      <c r="A47" s="77">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B47" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E47" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="77" t="str">
+      <c r="B47" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E47" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="75">
+      <c r="A48" s="77">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B48" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E48" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="77" t="str">
+      <c r="B48" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="75">
+      <c r="A49" s="77">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B49" s="75" t="s">
-        <v>374</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E49" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="77" t="str">
+      <c r="B49" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E49" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="77" t="str">
+      <c r="E50" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="77" t="str">
+      <c r="E51" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Metcalfe PS</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="77" t="str">
+      <c r="E52" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I52" s="86"/>
+      <c r="I52" s="93"/>
     </row>
     <row r="53">
-      <c r="E53" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="77" t="str">
+      <c r="E53" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="77" t="str">
+      <c r="E54" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="77" t="str">
+      <c r="E55" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Queen Mary St. PS</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="77" t="str">
+      <c r="E56" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="77" t="str">
+      <c r="E57" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="F58" s="77" t="str">
+      <c r="E58" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="77" t="str">
+      <c r="E59" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Roch Carrier ES</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="F60" s="77" t="str">
+      <c r="E60" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="77" t="str">
+      <c r="E61" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="F62" s="77" t="str">
+      <c r="E62" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="77" t="str">
+      <c r="E63" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="77" t="str">
+      <c r="E64" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" s="77" t="str">
+      <c r="E65" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="F66" s="77" t="str">
+      <c r="E66" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="77" t="str">
+      <c r="E67" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Bell HS</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" s="77" t="str">
+      <c r="E68" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" s="77" t="str">
+      <c r="E69" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="F70" s="77" t="str">
+      <c r="E70" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Osgoode Township HS</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="77" t="str">
+      <c r="E71" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="F72" s="77" t="str">
+      <c r="E72" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F72" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="F73" s="77" t="str">
+      <c r="E73" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Ridgemont HS</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="F74" s="77" t="str">
+      <c r="E74" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Sir Wilfrid Laurier SS</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="F75" s="77" t="str">
+      <c r="E75" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="F76" s="77" t="str">
+      <c r="E76" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="79" t="str">
         <f t="shared" si="1"/>
         <v>West Carleton SS</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" s="90" t="s">
+      <c r="E77" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="77" t="str">
+      <c r="F77" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="77" t="str">
+      <c r="F78" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="77" t="str">
+      <c r="E79" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="77" t="str">
+      <c r="E80" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="77" t="str">
+      <c r="E81" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="F82" s="77" t="str">
+      <c r="E82" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" s="77" t="str">
+      <c r="E83" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="77" t="str">
+      <c r="E84" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" s="77" t="str">
+      <c r="E85" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="77" t="str">
+      <c r="E86" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Kanata Highlands PS</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="77" t="str">
+      <c r="E87" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" s="77" t="str">
+      <c r="E88" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="77" t="str">
+      <c r="E89" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Stonecrest PS</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="F90" s="77" t="str">
+      <c r="E90" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" s="79" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="F91" s="77" t="str">
+      <c r="E91" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F91" s="79" t="str">
         <f t="shared" si="1"/>
         <v>York St. PS</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="F92" s="77" t="str">
+      <c r="E92" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Albert ST ps</v>
       </c>
     </row>
     <row r="93">
-      <c r="E93" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="F93" s="77" t="str">
+      <c r="E93" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="79" t="str">
         <f t="shared" si="1"/>
         <v>A.Y. Jackson SS</v>
       </c>
     </row>
     <row r="94">
-      <c r="E94" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="F94" s="77" t="str">
+      <c r="E94" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Hillcrest HS</v>
       </c>
     </row>
     <row r="95">
-      <c r="E95" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="F95" s="77" t="str">
+      <c r="E95" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F95" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Woodroffe HS</v>
       </c>
     </row>
     <row r="96">
-      <c r="E96" s="97" t="s">
-        <v>374</v>
-      </c>
-      <c r="F96" s="77" t="str">
+      <c r="E96" s="104" t="s">
+        <v>435</v>
+      </c>
+      <c r="F96" s="79" t="str">
         <f t="shared" si="1"/>
         <v>Glashan</v>
       </c>
     </row>
     <row r="97">
-      <c r="E97" s="98"/>
-      <c r="F97" s="83"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="90"/>
     </row>
     <row r="98">
-      <c r="E98" s="98"/>
-      <c r="F98" s="83"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="90"/>
     </row>
     <row r="99">
-      <c r="E99" s="98"/>
-      <c r="F99" s="83"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="90"/>
     </row>
     <row r="100">
-      <c r="E100" s="98"/>
-      <c r="F100" s="83"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="90"/>
     </row>
     <row r="101">
-      <c r="E101" s="98"/>
-      <c r="F101" s="83"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="90"/>
     </row>
     <row r="102">
-      <c r="E102" s="98"/>
-      <c r="F102" s="83"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="90"/>
     </row>
     <row r="103">
-      <c r="E103" s="98"/>
-      <c r="F103" s="83"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="90"/>
     </row>
     <row r="104">
-      <c r="E104" s="98"/>
-      <c r="F104" s="83"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="90"/>
     </row>
     <row r="105">
-      <c r="E105" s="98"/>
-      <c r="F105" s="83"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="90"/>
     </row>
     <row r="106">
-      <c r="E106" s="98"/>
-      <c r="F106" s="83"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="90"/>
     </row>
     <row r="107">
-      <c r="E107" s="98"/>
-      <c r="F107" s="83"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="90"/>
     </row>
     <row r="108">
-      <c r="E108" s="98"/>
-      <c r="F108" s="83"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="90"/>
     </row>
     <row r="109">
-      <c r="E109" s="98"/>
-      <c r="F109" s="83"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="90"/>
     </row>
     <row r="110">
-      <c r="E110" s="98"/>
-      <c r="F110" s="83"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="90"/>
     </row>
     <row r="111">
-      <c r="E111" s="98"/>
-      <c r="F111" s="83"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="90"/>
     </row>
     <row r="112">
-      <c r="E112" s="98"/>
-      <c r="F112" s="83"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="90"/>
     </row>
     <row r="113">
-      <c r="E113" s="98"/>
-      <c r="F113" s="83"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="90"/>
     </row>
     <row r="114">
-      <c r="E114" s="98"/>
-      <c r="F114" s="83"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="90"/>
     </row>
   </sheetData>
   <dataValidations>
